--- a/Selenium/Scroll_Ecomm.xlsx
+++ b/Selenium/Scroll_Ecomm.xlsx
@@ -466,27 +466,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Realme C11 3D Back Covers By Tweakymod</t>
+          <t>Vivo Y20 3D Back Covers By NICPIC Perfect fit</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(53)</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oppo Reno 2Z Printed Cover By T4U THINGS4U</t>
+          <t>Realme C11 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,17 +506,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(5)</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(10)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vivo Y20 Printed Cover By T4U THINGS4U</t>
+          <t>Oppo F17 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(28)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -586,27 +586,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M20 Printed Cover By NICPIC 3D Printed</t>
+          <t>Xiaomi Redmi 9 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>(3)</t>
         </is>
       </c>
     </row>
@@ -616,27 +616,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 9 power 3D Back Covers By Tweakymod</t>
+          <t>Samsung Galaxy A71 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 8 Printed Cover By T4U THINGS4U</t>
+          <t>Samsung Galaxy J2 (2016) 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>Not Rated Yet!!!</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 9 3D Back Covers By Tweakymod</t>
+          <t>Moto G5S Plus 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -706,27 +706,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J7 NXT Printed Cover By NICPIC 3D Printed</t>
+          <t>Realme 6 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Oppo A1K Printed Cover By T4U THINGS4U</t>
+          <t>Honor 9N 3D Back Covers By Tweakymod Printed back cover</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A21S 3D Back Covers By Tweakymod</t>
+          <t>Motorola Moto E5 Plus 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J8 2018 Printed Cover By T4U THINGS4U</t>
+          <t>Xiaomi Redmi 9 power 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -836,17 +836,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(9)</t>
+          <t>(10)</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 8 Printed Cover By T4U THINGS4U</t>
+          <t>Vivo Y20 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(34)</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Motorola Moto E5 Plus 3D Back Covers By Tweakymod</t>
+          <t>Vivo V20 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Apple iPhone 7 3D Back Covers By Tweakymod</t>
+          <t>Xiaomi Redmi Note 9 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -926,17 +926,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(8)</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Samsung Galaxy F41 3D Back Covers By NICPIC Perfect fit</t>
+          <t>Samsung Galaxy S9 Plus Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -956,17 +956,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Oppo A15s 3D Back Covers By Tweakymod</t>
+          <t>Samsung Galaxy A21S 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -986,17 +986,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(19)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Honor 9N 3D Back Covers By Tweakymod Printed back cover</t>
+          <t>Vivo Y71 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>80% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Rs. 179</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Realme 5 Pro 3D Back Covers By Tweakymod</t>
+          <t>Honor 9N 3D Back Covers By Tweakymod Printed back cover</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Oppo A15s 3D Back Covers By Tweakymod</t>
+          <t>Realme 6 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Vivo Y20 Printed Cover By T4U THINGS4U</t>
+          <t>Xiaomi Mi A3 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1106,17 +1106,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(10)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Oppo A1K Printed Cover By T4U THINGS4U</t>
+          <t>Xiaomi Redmi Note 4 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1136,17 +1136,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Realme C11 3D Back Covers By NICPIC Perfect fit</t>
+          <t>Xiaomi Redmi Note 7 Pro Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1166,17 +1166,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>57% Off</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>(6)</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Honor 9N 3D Back Covers By Tweakymod Printed back cover</t>
+          <t>Xiaomi Redmi Note 9 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>80% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Rs. 179</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 9 3D Back Covers By Tweakymod</t>
+          <t>Xiaomi Redmi 9 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(8)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Oppo F17 Printed Cover By T4U THINGS4U</t>
+          <t>Realme C11 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1256,17 +1256,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 7 Pro Printed Cover By NICPIC 3D Printed</t>
+          <t>Vivo Y20 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1286,17 +1286,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(6)</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Honor 9N 3D Back Covers By Tweakymod Printed back cover</t>
+          <t>Oppo A15s 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1316,17 +1316,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>80% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Rs. 179</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(20)</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M02 3D Back Covers By Tweakymod</t>
+          <t>Xiaomi Redmi Note 10 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Vivo Y20 Printed Cover By T4U THINGS4U</t>
+          <t>Vivo Y20i Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>(8)</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Oppo F9 Pro Printed Cover By NICPIC 3D Printed</t>
+          <t>Xiaomi Redmi Note 8 Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1406,17 +1406,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Vivo Y20i Printed Cover By T4U THINGS4U</t>
+          <t>Realme C3 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1436,17 +1436,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(6)</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Oppo A9 2020 Printed Cover By T4U THINGS4U</t>
+          <t>Realme 5 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Vivo Y12s Printed Cover By T4U THINGS4U</t>
+          <t>Realme Narzo 20 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(7)</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Oppo A3s Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy J7 NXT Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1526,17 +1526,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>(8)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 8 3D Back Covers By Tweakymod</t>
+          <t>Oppo A15s 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1556,17 +1556,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(9)</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Realme C11 3D Back Covers By Tweakymod</t>
+          <t>Vivo V20 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1586,17 +1586,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 8 Pro 3D Back Covers By Tweakymod</t>
+          <t>Xiaomi Mi A3 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1616,12 +1616,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5 Printed Cover By NICPIC 3D Printed</t>
+          <t>Vivo V11 Pro Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1646,17 +1646,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Realme 5s Printed Cover By T4U THINGS4U</t>
+          <t>Oppo A15s 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1676,12 +1676,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Realme C21 Printed Cover By T4U THINGS4U</t>
+          <t>Xiaomi Redmi Note 10 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1706,17 +1706,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Oppo A15s 3D Back Covers By Tweakymod</t>
+          <t>Xiaomi Redmi 9A 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1736,17 +1736,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6A Printed Cover By NICPIC 3D Printed</t>
+          <t>Vivo Y20 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1766,17 +1766,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(20)</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Realme X 3D Back Covers By Tweakymod</t>
+          <t>Realme C21 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>OPPO F15 Printed Cover By T4U THINGS4U</t>
+          <t>Samsung Galaxy J8 2018 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>OPPO RENO 3 PRO Printed Cover By T4U THINGS4U</t>
+          <t>Realme C21 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1856,17 +1856,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A3 3D Back Covers By Tweakymod</t>
+          <t>Samsung Galaxy A12 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1916,17 +1916,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Realme C3 3D Back Covers By Tweakymod</t>
+          <t>Oppo F17 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1946,12 +1946,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(3)</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 7 Pro Printed Cover By NICPIC 3D Printed</t>
+          <t>Oppo F9 Pro Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2006,17 +2006,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Vivo V20 3D Back Covers By Tweakymod</t>
+          <t>Samsung Galaxy J8 2018 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Vivo Y71 3D Back Covers By Tweakymod</t>
+          <t>Realme C21 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2066,12 +2066,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>OnePlus Nord 3D Back Covers By Tweakymod</t>
+          <t>Samsung Galaxy M02 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2096,17 +2096,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Vivo Y12 Printed Cover By NICPIC 3D Printed</t>
+          <t>Vivo Y20 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2126,17 +2126,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(8)</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Vivo Y50 3D Back Covers By Tweakymod</t>
+          <t>Oppo A15s 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2156,17 +2156,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(10)</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Honor 9N 3D Back Covers By Tweakymod Printed back cover</t>
+          <t>Vivo V20 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2186,17 +2186,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>80% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Rs. 179</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(6)</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 8 Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy A31 3D Back Covers By NICPIC Perfect fit</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2246,17 +2246,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Realme C3 3D Back Covers By Tweakymod</t>
+          <t>Oppo F17 Pro Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2276,17 +2276,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Oppo R17 Pro Printed Cover By T4U THINGS4U</t>
+          <t>Vivo Y20 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(28)</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Realme Narzo 20 Printed Cover By T4U THINGS4U</t>
+          <t>Xiaomi Redmi 9A 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2336,17 +2336,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 8A Dual 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
+          <t>Xiaomi Redmi Note 6 Pro Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2366,17 +2366,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(3)</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Oppo A15s 3D Back Covers By Tweakymod</t>
+          <t>Realme 5 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2396,12 +2396,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A70s Printed Cover By T4U THINGS4U</t>
+          <t>Oppo A15s Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 7A 3D Back Covers By Tweakymod</t>
+          <t>Vivo Y91i Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2456,17 +2456,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>OPPO F17 Pro 3D Back Covers By NICPIC Perfect fit</t>
+          <t>Vivo Y12 Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2486,17 +2486,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>(15)</t>
+          <t>(6)</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Vivo V3 MAX 3D Back Covers By Tweakymod</t>
+          <t>Xiaomi Redmi Note 10 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2516,12 +2516,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Realme 5 Pro 3D Back Covers By Tweakymod</t>
+          <t>Realme C11 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2546,12 +2546,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J6 Printed Cover By T4U THINGS4U</t>
+          <t>Oppo F17 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 9 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
+          <t>OPPO F17 Pro 3D Back Covers By NICPIC Perfect fit</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2606,17 +2606,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Oppo A15s 3D Back Covers By Tweakymod</t>
+          <t>Vivo Y20 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2636,17 +2636,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>(9)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Oppo F17 3D Back Covers By Tweakymod</t>
+          <t>Oppo A9 2020 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Vivo Y83 Pro Printed Cover By T4U THINGS4U</t>
+          <t>Vivo V17 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Vivo Y15 Printed Cover By NICPIC 3D Printed</t>
+          <t>Vivo Y17 Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2726,17 +2726,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Vivo Y20 Printed Cover By T4U THINGS4U</t>
+          <t>Honor 9N 3D Back Covers By Tweakymod Printed back cover</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2756,12 +2756,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Vivo V5 Plus 3D Back Covers By Tweakymod</t>
+          <t>Samsung Galaxy A51 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2786,12 +2786,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J2 (2016) 3D Back Covers By Tweakymod</t>
+          <t>Realme C12 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2816,12 +2816,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 6 Pro Printed Cover By NICPIC 3D Printed</t>
+          <t>Realme C3 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2846,17 +2846,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Xiaomi Poco M2 Printed Cover By T4U THINGS4U</t>
+          <t>Vivo Y20 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 8A Dual Printed Cover By T4U THINGS4U</t>
+          <t>Vivo Y12s Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(7)</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Oppo F17 Pro Printed Cover By T4U THINGS4U</t>
+          <t>Realme Narzo 10A 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2936,17 +2936,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Realme XT Printed Cover By NICPIC 3D Printed</t>
+          <t>Vivo Y20 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2966,17 +2966,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>(9)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 7A 3D Back Covers By Tweakymod</t>
+          <t>Xiaomi Redmi 9 Prime 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Honor 7A 3D Back Covers By Tweakymod</t>
+          <t>Oppo A15s 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3026,17 +3026,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(5)</t>
         </is>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Vivo Y91i Printed Cover By T4U THINGS4U</t>
+          <t>Samsung Galaxy J8 2018 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3056,12 +3056,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>72% Off</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 249</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 7S Printed Cover By NICPIC 3D Printed</t>
+          <t>Xiaomi Redmi 8A Dual 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3086,17 +3086,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Realme C21 3D Back Covers By Tweakymod</t>
+          <t>Vivo Y20 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3116,17 +3116,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(13)</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Honor 9N 3D Back Covers By Tweakymod Printed back cover</t>
+          <t>Xiaomi Redmi Note 5 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>80% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Rs. 179</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A10 Printed Cover By T4U THINGS4U</t>
+          <t>Oppo A1K Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>OPPO F11 Pro Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy A20s Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3206,17 +3206,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(7)</t>
         </is>
       </c>
     </row>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Vivo V20 Printed Cover By T4U THINGS4U</t>
+          <t>Realme C11 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Realme 6 3D Back Covers By Tweakymod</t>
+          <t>Vivo S1 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3266,12 +3266,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3286,27 +3286,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Vivo V20 3D Back Covers By Tweakymod</t>
+          <t>Vivo S1 Pro Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 799</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>60% Off</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 319</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A70 Printed Cover By NICPIC 3D Printed</t>
+          <t>Xiaomi Redmi Note 7 Pro Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3326,17 +3326,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>57% Off</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Vivo Y20 Printed Cover By T4U THINGS4U</t>
+          <t>Vivo Y81 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Oppo A15s Printed Cover By T4U THINGS4U</t>
+          <t>Realme 7i Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5 3D Back Covers By Tweakymod</t>
+          <t>Xiaomi Redmi 9 Prime 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 9 3D Back Covers By NICPIC Perfect fit</t>
+          <t>Samsung Galaxy A70 Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3446,17 +3446,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Oppo Reno 2F Printed Cover By T4U THINGS4U</t>
+          <t>OPPO A12 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -3496,27 +3496,27 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Oppo F3 Printed Cover By T4U THINGS4U</t>
+          <t>Samsung Galaxy A20s Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>(7)</t>
         </is>
       </c>
     </row>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Realme Narzo 20 Printed Cover By T4U THINGS4U</t>
+          <t>Vivo S1 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3536,17 +3536,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>Not Rated Yet!!!</t>
         </is>
       </c>
     </row>
@@ -3556,27 +3556,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Vivo Y91 Printed Cover By NICPIC 3D Printed</t>
+          <t>Xiaomi Redmi 9 power 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Realme 5 Pro 3D Back Covers By Tweakymod</t>
+          <t>Samsung Galaxy A8 Plus 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3596,17 +3596,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -3616,27 +3616,27 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Realme C11 3D Back Covers By Tweakymod</t>
+          <t>Vivo V11 Pro Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -3646,27 +3646,27 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Vivo V15 Printed Cover By T4U THINGS4U</t>
+          <t>Xiaomi Redmi 9 Prime 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Rs. 799</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>60% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Rs. 319</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>Not Rated Yet!!!</t>
         </is>
       </c>
     </row>
@@ -3676,27 +3676,27 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 6 Pro Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy M11 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Honor 9N 3D Back Covers By Tweakymod Printed back cover</t>
+          <t>Samsung Galaxy M02 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>80% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Rs. 179</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3736,27 +3736,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M12 3D Back Covers By Tweakymod</t>
+          <t>Xiaomi Redmi Note 7 Pro Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>57% Off</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Vivo Y15 3D Back Covers By Tweakymod</t>
+          <t>Apple iPhone 7 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3776,17 +3776,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -3796,27 +3796,27 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J6 Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy J2 2018 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>Not Rated Yet!!!</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Oppo A15s 3D Back Covers By Tweakymod</t>
+          <t>Xiaomi Redmi Note 7 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3836,12 +3836,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -3856,27 +3856,27 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Vivo Y19 Printed Cover By T4U THINGS4U</t>
+          <t>Vivo Y20 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(6)</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 8 3D Back Covers By Tweakymod</t>
+          <t>Vivo V5 Plus 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3896,12 +3896,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>72% Off</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 249</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -3916,22 +3916,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A31 3D Back Covers By NICPIC Perfect fit</t>
+          <t>Oppo A15s 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Poco C3 3D Back Covers By Tweakymod</t>
+          <t>Realme 6 Pro Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3956,17 +3956,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>Not Rated Yet!!!</t>
         </is>
       </c>
     </row>
@@ -3976,27 +3976,27 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Moto G5 3D Back Covers By Tweakymod</t>
+          <t>Realme C11 3D Back Covers By NICPIC Perfect fit</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A3 3D Back Covers By Tweakymod</t>
+          <t>Xiaomi Redmi Note 9 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4016,17 +4016,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -4036,27 +4036,27 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Oppo A57 Printed Cover By NICPIC 3D Printed</t>
+          <t>Vivo Y50 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(5)</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Oppo F3 Printed Cover By T4U THINGS4U</t>
+          <t>Oppo A15s 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4076,17 +4076,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>Not Rated Yet!!!</t>
         </is>
       </c>
     </row>
@@ -4096,27 +4096,27 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 3s Prime Printed Cover By T4U THINGS4U</t>
+          <t>Xiaomi Redmi 8A Dual 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Vivo Y19 3D Back Covers By Tweakymod</t>
+          <t>Xiaomi Redmi Note 8 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4136,17 +4136,17 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(5)</t>
         </is>
       </c>
     </row>
@@ -4156,27 +4156,27 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>OPPO A9 Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy J7 Prime 2 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>vivo V7 plus 3D Back Covers By Tweakymod</t>
+          <t>Oppo A15s 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4196,17 +4196,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(3)</t>
         </is>
       </c>
     </row>
@@ -4216,27 +4216,27 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Vivo Y17 Printed Cover By T4U THINGS4U</t>
+          <t>Oppo A37 Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>(10)</t>
+          <t>Not Rated Yet!!!</t>
         </is>
       </c>
     </row>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 10 3D Back Covers By Tweakymod</t>
+          <t>Vivo Y71 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4256,12 +4256,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4276,27 +4276,27 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6A Printed Cover By NICPIC 3D Printed</t>
+          <t>Oppo A1K Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(5)</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 9 3D Back Covers By Tweakymod</t>
+          <t>Vivo Z1 Pro Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4316,12 +4316,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4336,27 +4336,27 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M12 3D Back Covers By Tweakymod</t>
+          <t>Xiaomi Redmi Note 5 Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(6)</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A51 3D Back Covers By Tweakymod</t>
+          <t>Xiaomi Redmi 7A 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4376,17 +4376,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>Not Rated Yet!!!</t>
         </is>
       </c>
     </row>
@@ -4396,22 +4396,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Realme 3 Pro Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy J6 Plus Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Honor 9N 3D Back Covers By Tweakymod Printed back cover</t>
+          <t>1+ OnePlus Nord CE 5G Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4436,17 +4436,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>80% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Rs. 179</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -4456,27 +4456,27 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Realme C12 3D Back Covers By Tweakymod</t>
+          <t>Vivo S1 Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Vivo V20 Pro 3D Back Covers By Tweakymod</t>
+          <t>Xiaomi Redmi Note 10 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4496,17 +4496,17 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>Not Rated Yet!!!</t>
         </is>
       </c>
     </row>
@@ -4516,27 +4516,27 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Realme C3 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
+          <t>Oppo F5 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Oppo A15s 3D Back Covers By Tweakymod</t>
+          <t>Samsung Galaxy A12 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4556,12 +4556,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4576,27 +4576,27 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Oppo F5 Printed Cover By T4U THINGS4U</t>
+          <t>Oppo A3s Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(8)</t>
         </is>
       </c>
     </row>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Realme 6 3D Back Covers By Tweakymod</t>
+          <t>Samsung Galaxy A21S 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4616,17 +4616,17 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -4636,27 +4636,27 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 8 Pro Printed Cover By NICPIC 3D Printed</t>
+          <t>Oppo A9 2020 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>Not Rated Yet!!!</t>
         </is>
       </c>
     </row>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Realme Narzo 30A Printed Cover By T4U THINGS4U</t>
+          <t>Samsung Galaxy J7 Prime Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(7)</t>
         </is>
       </c>
     </row>
@@ -4696,17 +4696,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Vivo Z1 Pro Printed Cover By T4U THINGS4U</t>
+          <t>Vivo Y20 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>57% Off</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 8 Pro 3D Back Covers By Tweakymod</t>
+          <t>Moto G4 Plus 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4736,17 +4736,17 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -4756,27 +4756,27 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Vivo V9 Printed Cover By NICPIC 3D Printed</t>
+          <t>Vivo Y17 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(10)</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 9 Prime 3D Back Covers By Tweakymod</t>
+          <t>Xiaomi Redmi 9A 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4796,12 +4796,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -4816,17 +4816,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 8 Printed Cover By T4U THINGS4U</t>
+          <t>Realme 3 Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>57% Off</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(3)</t>
         </is>
       </c>
     </row>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Vivo Y81 Printed Cover By T4U THINGS4U</t>
+          <t>Vivo Y91i Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(3)</t>
         </is>
       </c>
     </row>
@@ -4876,27 +4876,27 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>OPPO F11 Pro Printed Cover By NICPIC 3D Printed</t>
+          <t>OPPO RENO 3 PRO Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Vivo Y83 Pro Printed Cover By T4U THINGS4U</t>
+          <t>OnePlus Nord 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4916,17 +4916,17 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>Not Rated Yet!!!</t>
         </is>
       </c>
     </row>
@@ -4936,27 +4936,27 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 9 power 3D Back Covers By Tweakymod</t>
+          <t>Realme C3 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Realme C21 3D Back Covers By Tweakymod</t>
+          <t>Realme 5 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4976,17 +4976,17 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -4996,27 +4996,27 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A20s Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy Note 10 Plus Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(3)</t>
         </is>
       </c>
     </row>
@@ -5026,27 +5026,27 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A8 Plus 3D Back Covers By Tweakymod</t>
+          <t>Xiaomi Redmi Note 8 Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J7 Max 3D Back Covers By Tweakymod</t>
+          <t>Vivo Y12s Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5066,12 +5066,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Vivo V17 Printed Cover By T4U THINGS4U</t>
+          <t>Realme C11 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5096,17 +5096,17 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>72% Off</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 249</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -5116,27 +5116,27 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Vivo V11 Pro Printed Cover By NICPIC 3D Printed</t>
+          <t>Vivo Y20 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>(5)</t>
         </is>
       </c>
     </row>
@@ -5146,27 +5146,27 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Oppo F17 3D Back Covers By Tweakymod</t>
+          <t>Xiaomi Redmi 6A Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Oppo F17 Printed Cover By T4U THINGS4U</t>
+          <t>Samsung Galaxy A50 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5186,12 +5186,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 9A 3D Back Covers By Tweakymod</t>
+          <t>Samsung Galaxy J7 Max 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5216,12 +5216,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5236,27 +5236,27 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Honor 9N 3D Back Covers By Tweakymod Printed back cover</t>
+          <t>Vivo V15 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 799</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>80% Off</t>
+          <t>60% Off</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Rs. 179</t>
+          <t>Rs. 319</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(6)</t>
         </is>
       </c>
     </row>
@@ -5266,22 +5266,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Oppo F17 Pro Printed Cover By T4U THINGS4U</t>
+          <t>Xiaomi Redmi Note 9 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 7A 3D Back Covers By Tweakymod</t>
+          <t>Oppo Reno 2F Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5306,17 +5306,17 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>(5)</t>
         </is>
       </c>
     </row>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5 3D Back Covers By Tweakymod</t>
+          <t>Moto E7 Plus 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5336,17 +5336,17 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>Not Rated Yet!!!</t>
         </is>
       </c>
     </row>
@@ -5356,27 +5356,27 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Vivo Y17 Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy A12 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -5386,27 +5386,27 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Vivo Y69 Printed Cover By T4U THINGS4U</t>
+          <t>Realme XT Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(9)</t>
         </is>
       </c>
     </row>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Oppo A15s 3D Back Covers By Tweakymod</t>
+          <t>Realme C11 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5426,17 +5426,17 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Realme C25 Printed Cover By T4U THINGS4U</t>
+          <t>Vivo Y12s Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(3)</t>
         </is>
       </c>
     </row>
@@ -5476,27 +5476,27 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Vivo Y12 Printed Cover By NICPIC 3D Printed</t>
+          <t>Realme 5 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>Not Rated Yet!!!</t>
         </is>
       </c>
     </row>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 7 Pro 3D Back Covers By Tweakymod</t>
+          <t>Honor 9N 3D Back Covers By Tweakymod Printed back cover</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5516,17 +5516,17 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>(3)</t>
         </is>
       </c>
     </row>
@@ -5536,27 +5536,27 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Motorola Moto E6 Plus 3D Back Covers By Tweakymod</t>
+          <t>Vivo Y20 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>78% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Rs. 199</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(5)</t>
         </is>
       </c>
     </row>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 9 Prime Printed Cover By T4U THINGS4U</t>
+          <t>Samsung Galaxy J7 Max 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5576,12 +5576,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -5596,27 +5596,27 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M30s Printed Cover By NICPIC 3D Printed</t>
+          <t>Realme 5s Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -5626,27 +5626,27 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Note 10 Plus Printed Cover By T4U THINGS4U</t>
+          <t>Samsung Galaxy J6 Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Rs. 899</t>
+          <t>Rs. 699</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>67% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>Not Rated Yet!!!</t>
         </is>
       </c>
     </row>
@@ -5656,27 +5656,27 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Oppo Reno 2F Printed Cover By NICPIC 3D Printed</t>
+          <t>Xiaomi Redmi Note 5 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>64% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Rs. 249</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -5686,27 +5686,27 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Oppo A3s Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy J8 2018 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(3)</t>
         </is>
       </c>
     </row>
@@ -5716,27 +5716,27 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 7 Pro Printed Cover By NICPIC 3D Printed</t>
+          <t>Oppo F17 Pro Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 9 Pro Max 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
+          <t>Oppo A3s Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5756,12 +5756,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -5776,27 +5776,27 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Realme 6I 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
+          <t>Honor 9N 3D Back Covers By Tweakymod Printed back cover</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -5806,27 +5806,27 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Vivo Y91 Printed Cover By NICPIC 3D Printed</t>
+          <t>Oppo A15s 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -5836,27 +5836,27 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Oppo Reno Printed Cover By NICPIC 3D Printed</t>
+          <t>OnePlus Nord 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 4 Printed Cover By NICPIC 3D Printed</t>
+          <t>Xiaomi Redmi 6A Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5876,17 +5876,17 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -5896,27 +5896,27 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Vivo Y91 Printed Cover By NICPIC 3D Printed</t>
+          <t>1+ OnePlus Nord CE 5G Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -5926,22 +5926,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Note 8 Printed Cover By NICPIC 3D Printed</t>
+          <t>Xiaomi Redmi Note 10 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>72% Off</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 249</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -5956,27 +5956,27 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>OPPO F15 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
+          <t>Samsung Galaxy J6 Plus Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Realme 7 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
+          <t>Xiaomi Redmi Note 7S Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5996,17 +5996,17 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>64% Off</t>
+          <t>57% Off</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Rs. 249</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -6016,27 +6016,27 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Vivo Y95 Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy J7 Prime Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -6046,22 +6046,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Vivo Y30 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
+          <t>Vivo Y50 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>64% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Rs. 249</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -6076,27 +6076,27 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Oppo A3s Printed Cover By NICPIC 3D Printed</t>
+          <t>Honor 9N 3D Back Covers By Tweakymod Printed back cover</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>75% Off</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 229</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -6106,7 +6106,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Vivo V15 Pro Printed Cover By NICPIC 3D Printed</t>
+          <t>Realme 3 Pro Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6116,17 +6116,17 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -6136,27 +6136,27 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Realme C1 Printed Cover By NICPIC 3D Printed</t>
+          <t>Xiaomi Redmi Note 8 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -6166,22 +6166,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Vivo X50 Pro 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
+          <t>Manharry Printed Cover For Samsung M02s</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 599</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>70% Off</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 179</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -6196,27 +6196,27 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Vivo Y12 Printed Cover By NICPIC 3D Printed</t>
+          <t>Vivo V20 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A21S 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
+          <t>Samsung Galaxy A70 Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6236,17 +6236,17 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -6256,27 +6256,27 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>OPPO RENO 3 PRO 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
+          <t>Samsung Galaxy A10 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -6286,27 +6286,27 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Vivo V15 Printed Cover By NICPIC 3D Printed</t>
+          <t>Vivo Y83 Pro Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -6316,22 +6316,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Oppo Reno Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy A10s Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -6346,7 +6346,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Oppo Reno 2F Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy A70 Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6356,17 +6356,17 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>64% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Rs. 249</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(6)</t>
         </is>
       </c>
     </row>
@@ -6376,27 +6376,27 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Vivo Y17 Printed Cover By NICPIC 3D Printed</t>
+          <t>Xiaomi Poco M2 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(3)</t>
         </is>
       </c>
     </row>
@@ -6406,27 +6406,27 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 9 Pro Max 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
+          <t>Vivo Y19 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(3)</t>
         </is>
       </c>
     </row>
@@ -6436,27 +6436,27 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 9 Pro Max 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
+          <t>Xiaomi Redmi 9 power 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Vivo X50 Pro 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
+          <t>Oppo F9 Pro Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6476,12 +6476,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>57% Off</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -6496,27 +6496,27 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Realme 7 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
+          <t>Samsung Galaxy J7 Max 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>64% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Rs. 249</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(3)</t>
         </is>
       </c>
     </row>
@@ -6526,27 +6526,27 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 7 Pro Printed Cover By NICPIC 3D Printed</t>
+          <t>Xiaomi Redmi 7A 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Vivo V15 Pro Printed Cover By NICPIC 3D Printed</t>
+          <t>Xiaomi Redmi Note 8 Pro Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -6566,17 +6566,17 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -6586,22 +6586,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J6 Printed Cover By NICPIC 3D Printed</t>
+          <t>Xiaomi Redmi 9 power 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -6616,27 +6616,27 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Oppo Reno 2F Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy J2 (2016) 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -6646,27 +6646,27 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Oppo A3s Printed Cover By NICPIC 3D Printed</t>
+          <t>Honor 9N 3D Back Covers By Tweakymod Printed back cover</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(3)</t>
         </is>
       </c>
     </row>
@@ -6676,7 +6676,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Vivo Y90 Printed Cover By NICPIC 3D Printed</t>
+          <t>Xiaomi Redmi Note 9 3D Back Covers By NICPIC Perfect fit</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6686,17 +6686,17 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -6706,27 +6706,27 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Realme XT Printed Cover By NICPIC 3D Printed</t>
+          <t>Vivo S1 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -6736,22 +6736,22 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Vivo Y30 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
+          <t>Xiaomi Redmi 9A 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>64% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Rs. 249</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -6766,27 +6766,27 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>REALME 7 Pro 3D Back Covers By NICPIC Perfect fit</t>
+          <t>Xiaomi Redmi 9 Prime Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Rs. 599</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>60% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S9 Plus Printed Cover By NICPIC 3D Printed</t>
+          <t>Vivo Y12 Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -6806,17 +6806,17 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>66% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Rs. 239</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -6826,27 +6826,27 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>OPPO Find X2 Pro 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
+          <t>Xiaomi Redmi 9 power 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -6856,22 +6856,22 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M10 Printed Cover By NICPIC 3D Printed</t>
+          <t>Xiaomi Redmi 9 power 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -6886,27 +6886,27 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Vivo Y93 Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy M12 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S9 Plus Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy A21S 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -6926,17 +6926,17 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -6946,27 +6946,27 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Vivo V9 Pro Printed Cover By NICPIC 3D Printed</t>
+          <t>Oppo A15s 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -6976,27 +6976,27 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Samsung Galaxy J7 NXT Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy J7 Max 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>54% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Rs. 319</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(3)</t>
         </is>
       </c>
     </row>
@@ -7006,22 +7006,22 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A20s Printed Cover By NICPIC 3D Printed</t>
+          <t>OnePlus Nord 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -7036,27 +7036,27 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Redmi 6 Printed Cover By NICPIC 3D Printed</t>
+          <t>Xiaomi Redmi Note 7 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Vivo V7 Printed Cover By NICPIC 3D Printed</t>
+          <t>Vivo S1 Printed Cover By NICPIC 3D Printed</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7076,17 +7076,17 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>73% Off</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 189</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -7096,27 +7096,27 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 9 3D Back Covers By NICPIC (Digital Printed &amp; Unique Design)</t>
+          <t>Xiaomi Redmi Note 5 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -7126,27 +7126,27 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M10 Printed Cover By NICPIC 3D Printed</t>
+          <t>Moto G5S Plus 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Not Rated Yet!!!</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -7156,22 +7156,22 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M10 Printed Cover By NICPIC 3D Printed</t>
+          <t>Xiaomi Mi A3 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -7186,17 +7186,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A70 Printed Cover By NICPIC 3D Printed</t>
+          <t>Realme C25 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -7216,17 +7216,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Vivo Y55 Printed Cover By NICPIC 3D Printed</t>
+          <t>Oppo A3s Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -7246,22 +7246,22 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M10 Printed Cover By NICPIC 3D Printed</t>
+          <t>Xiaomi Redmi Note 10 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -7276,22 +7276,22 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Vivo Y93 Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy M21 Printed Cover By hello case Premium Printed cover</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 999</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 179</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -7306,17 +7306,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Oppo A71 Printed Cover By NICPIC 3D Printed</t>
+          <t>Realme C21 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -7336,22 +7336,22 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A20 Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy M11 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -7366,22 +7366,22 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>realme 7 3D Back Covers By NICPIC Perfect fit</t>
+          <t>Oppo A15 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Rs. 599</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>47% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Rs. 319</t>
+          <t>Rs. 299</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -7396,17 +7396,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Realme 3i Printed Cover By NICPIC 3D Printed</t>
+          <t>Vivo Y19 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -7426,17 +7426,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5 Plus Printed Cover By NICPIC 3D Printed</t>
+          <t>Realme C25 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7456,22 +7456,22 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Vivo V11 Printed Cover By NICPIC 3D Printed</t>
+          <t>Vivo Y71 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -7486,22 +7486,22 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Vivo V7 Printed Cover By NICPIC 3D Printed</t>
+          <t>Xiaomi Redmi Note 7 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -7516,22 +7516,22 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Vivo Y12 Printed Cover By NICPIC 3D Printed</t>
+          <t>Realme X3 Superzoom 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 159</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -7546,17 +7546,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Mix 2 Printed Cover By NICPIC 3D Printed</t>
+          <t>Samsung Galaxy M31 Printed Cover By T4U THINGS4U</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>67% Off</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -7576,22 +7576,22 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Vivo V7 Printed Cover By NICPIC 3D Printed</t>
+          <t>Realme 6 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>72% Off</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 249</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -7606,22 +7606,22 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5 Plus Printed Cover By NICPIC 3D Printed</t>
+          <t>Realme 5 Pro 3D Back Covers By Tweakymod</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 899</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>72% Off</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 249</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -7636,22 +7636,22 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Vivo V17 Pro Printed Cover By NICPIC 3D Printed</t>
+          <t>Realme Narzo 20A Printed Cover By hello case Premium Printed cover</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Rs. 699</t>
+          <t>Rs. 999</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>57% Off</t>
+          <t>82% Off</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Rs. 299</t>
+          <t>Rs. 179</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
